--- a/Portfolio/华泰证券资金流水2015-2019.xlsx
+++ b/Portfolio/华泰证券资金流水2015-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0475605-E9D5-49C6-9E7F-6FBA5C45F712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BC959-2464-422C-BE00-B7832BB019DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="3570" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="201508-201612" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'201701-201912'!$A$1:$M$538</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">华泰证券交易记录整合!$A$1:$M$681</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">华泰证券交易记录整合!$A$1:$M$685</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="77">
   <si>
     <t>A280737240</t>
   </si>
@@ -1160,6 +1160,27 @@
   <si>
     <t>GC007</t>
   </si>
+  <si>
+    <t>股息入帐</t>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>股息入账:50ETF510050; 权益股数:2700;股东账号：A280737240;</t>
+  </si>
+  <si>
+    <t>基金资金拨出</t>
+  </si>
+  <si>
+    <t>122扣除金额 基金代码：940018,发生份额：126.9</t>
+  </si>
+  <si>
+    <t>股息入账:300ETF510300; 权益股数:9100;股东账号：A280737240;</t>
+  </si>
+  <si>
+    <t>122扣除金额 基金代码：940018,发生份额：564.2</t>
+  </si>
 </sst>
 </file>
 
@@ -1244,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1279,6 +1300,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -31735,17 +31759,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF8F411-A598-409E-ABF1-775ACEA88B2C}">
-  <dimension ref="A1:M681"/>
+  <dimension ref="A1:M689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A629" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A686" sqref="A686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -59450,10 +59474,10 @@
       <c r="D629" s="12">
         <v>510300</v>
       </c>
-      <c r="E629" s="12" t="s">
+      <c r="E629" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F629" s="12" t="s">
+      <c r="F629" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G629" s="14">
@@ -61843,9 +61867,201 @@
         <v>银行返回码[ ]返回信息[0000 交易成功]|转账成功 转账账号:6225881012906292 correct_balance=3569.51</v>
       </c>
     </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A682" s="16">
+        <v>6555</v>
+      </c>
+      <c r="B682" s="4">
+        <v>43803</v>
+      </c>
+      <c r="C682" s="11" t="str">
+        <f>"50ETF"</f>
+        <v>50ETF</v>
+      </c>
+      <c r="D682" s="11" t="str">
+        <f>"510050"</f>
+        <v>510050</v>
+      </c>
+      <c r="E682" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F682" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G682" s="13">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="H682" s="1">
+        <v>0</v>
+      </c>
+      <c r="I682" s="5">
+        <v>126.9</v>
+      </c>
+      <c r="J682" s="5">
+        <v>126.9</v>
+      </c>
+      <c r="K682" s="5">
+        <v>0</v>
+      </c>
+      <c r="L682" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="M682" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A683" s="16">
+        <v>7729</v>
+      </c>
+      <c r="B683" s="4">
+        <v>43804</v>
+      </c>
+      <c r="C683" s="11" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D683" s="11" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E683" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F683" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G683" s="13">
+        <v>0</v>
+      </c>
+      <c r="H683" s="1">
+        <v>0</v>
+      </c>
+      <c r="I683" s="5">
+        <v>-126.9</v>
+      </c>
+      <c r="J683" s="5">
+        <v>0</v>
+      </c>
+      <c r="K683" s="5">
+        <v>0</v>
+      </c>
+      <c r="L683" s="1" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M683" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A684" s="16">
+        <v>6197</v>
+      </c>
+      <c r="B684" s="4">
+        <v>43812</v>
+      </c>
+      <c r="C684" s="11" t="str">
+        <f>"300ETF"</f>
+        <v>300ETF</v>
+      </c>
+      <c r="D684" s="11" t="str">
+        <f>"510300"</f>
+        <v>510300</v>
+      </c>
+      <c r="E684" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F684" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G684" s="13">
+        <v>3.968</v>
+      </c>
+      <c r="H684" s="1">
+        <v>0</v>
+      </c>
+      <c r="I684" s="5">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="J684" s="5">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="K684" s="5">
+        <v>0</v>
+      </c>
+      <c r="L684" s="1" t="str">
+        <f>"A280737240"</f>
+        <v>A280737240</v>
+      </c>
+      <c r="M684" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A685" s="16">
+        <v>2271</v>
+      </c>
+      <c r="B685" s="4">
+        <v>43815</v>
+      </c>
+      <c r="C685" s="11" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D685" s="11" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E685" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F685" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G685" s="13">
+        <v>0</v>
+      </c>
+      <c r="H685" s="1">
+        <v>0</v>
+      </c>
+      <c r="I685" s="5">
+        <v>-564.20000000000005</v>
+      </c>
+      <c r="J685" s="5">
+        <v>0</v>
+      </c>
+      <c r="K685" s="5">
+        <v>0</v>
+      </c>
+      <c r="L685" s="1" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M685" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B686" s="4"/>
+      <c r="L686" s="1"/>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B687" s="4"/>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B688" s="4"/>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B689" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M681" xr:uid="{F520BE3D-FEF2-4B4A-BF38-05C2D1F3DBB6}"/>
+  <autoFilter ref="A1:M685" xr:uid="{F520BE3D-FEF2-4B4A-BF38-05C2D1F3DBB6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C682 C684:D684 E643" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>